--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>680040.38091216</v>
+        <v>611606.4674639701</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554237</v>
+        <v>337002.2430554234</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.68099519</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8271080.068377356</v>
+        <v>8271080.068377357</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>82.96396779500076</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>55.26115413364287</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="6">
@@ -977,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>45.32733496102416</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>118.3968738826468</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>71.01467844038824</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>51.46236366792053</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>240.2852047086421</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>182.16191991093</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250708</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>99.34508049624243</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853703</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491434</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>99.66075074687581</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>104.5113366705971</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>189.3768831285474</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -1663,19 +1663,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250708</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U15" t="n">
         <v>225.8879277888686</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>54.47555601903365</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>337.5440355849931</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>323.9918595228949</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>30.28266751616601</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>189.5968436493438</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>181.5568623361508</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>99.7837801733908</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
         <v>196.8897623984489</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>43.3178534391397</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>60.45826732827203</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>300.3033795584752</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>52.10844059186253</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>65.51651982872603</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>206.9109327655378</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>215.6285956664117</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2651,7 +2651,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I27" t="n">
         <v>61.42221998250818</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>44.94101498269133</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>199.4958951066383</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,28 +2952,28 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>44.82579829756118</v>
+        <v>59.72683757586851</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>2.105511917134292</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3049,7 +3049,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>16.75621881385879</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>26.32882004050043</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>83.5983059739478</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>194.8806712903671</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>310.894858299685</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>89.06613335611762</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.546296656423289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>280.1033070984085</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>307.9895902233671</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>8.389005322401561</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>196.7218456862862</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>60.45826732827245</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>48.13917698752459</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3942,25 +3942,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>54.47555601903363</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>312.7927084532569</v>
+        <v>275.5457024592188</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>8.787420751036338</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>150.5540262346245</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E2" t="n">
-        <v>315.6850394389064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F2" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G2" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>279.5233881080029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>279.5233881080029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>279.5233881080029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>279.5233881080029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>279.5233881080029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,16 +4415,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>178.8501590306595</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>487.2836868729568</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>487.2836868729568</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>487.2836868729568</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>279.5233881080029</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4527,13 +4527,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C5" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D5" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E5" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F5" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C5" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E5" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F5" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4606,13 +4606,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X5" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y5" t="n">
         <v>720.6083788665362</v>
-      </c>
-      <c r="X5" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>548.4453565401495</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C6" t="n">
-        <v>373.9923272590225</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D6" t="n">
-        <v>225.0579175977713</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E6" t="n">
-        <v>65.82046259231578</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
         <v>964.0571555106362</v>
@@ -4682,16 +4682,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X6" t="n">
-        <v>756.2056553051034</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y6" t="n">
-        <v>548.4453565401495</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4764,13 +4764,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X8" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F9" t="n">
         <v>19.28114311021272</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>933.9571464551993</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>705.7335281915883</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V9" t="n">
-        <v>470.5814199598456</v>
+        <v>409.2644777274278</v>
       </c>
       <c r="W9" t="n">
-        <v>227.1326433157456</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="10">
@@ -4980,25 +4980,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>777.3160057777993</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C11" t="n">
-        <v>777.3160057777993</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D11" t="n">
-        <v>777.3160057777993</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E11" t="n">
-        <v>777.3160057777993</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F11" t="n">
-        <v>777.3160057777993</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2478.514423990284</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.752638628376</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V11" t="n">
-        <v>1893.689751284805</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W11" t="n">
-        <v>1540.921096014691</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X11" t="n">
-        <v>1167.455337753611</v>
+        <v>1985.7220098549</v>
       </c>
       <c r="Y11" t="n">
-        <v>777.3160057777993</v>
+        <v>1595.582677879088</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747038</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692483</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102423994</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673413</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>309.1903022614628</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571346</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915165</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430046</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>336.2769833124025</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>336.2769833124025</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>336.2769833124025</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>336.2769833124025</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>336.2769833124025</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>336.2769833124025</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600558</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942398</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124025</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T13" t="n">
-        <v>336.2769833124025</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U13" t="n">
-        <v>336.2769833124025</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V13" t="n">
-        <v>336.2769833124025</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
-        <v>336.2769833124025</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>336.2769833124025</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>336.2769833124025</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>159.5099885583413</v>
+        <v>1529.645519427256</v>
       </c>
       <c r="C14" t="n">
-        <v>53.94298182036443</v>
+        <v>1529.645519427256</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036443</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036443</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036443</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036443</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036443</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5296,34 +5296,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
         <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.546461473039</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.483574129469</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W14" t="n">
-        <v>1309.714918859355</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X14" t="n">
-        <v>936.2491605982748</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y14" t="n">
-        <v>546.1098286224631</v>
+        <v>1916.245359491378</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747038</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692483</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102423994</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673413</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641982</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>670.82192085987</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430046</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5445,43 +5445,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036443</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036443</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.944160717209</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.981643776797</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D17" t="n">
-        <v>1177.981643776797</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E17" t="n">
-        <v>792.1933911785527</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F17" t="n">
-        <v>381.2074863889451</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
@@ -5521,7 +5521,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757142</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.54400078133</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="18">
@@ -5570,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036444</v>
+        <v>697.5404311598019</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036444</v>
+        <v>528.604248231895</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036444</v>
+        <v>528.604248231895</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5682,43 +5682,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1546.944160717209</v>
+        <v>1320.425425970681</v>
       </c>
       <c r="C20" t="n">
-        <v>1546.944160717209</v>
+        <v>951.4629090302697</v>
       </c>
       <c r="D20" t="n">
-        <v>1546.944160717209</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="E20" t="n">
-        <v>1363.553390680693</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F20" t="n">
-        <v>952.5674858910851</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5782,22 +5782,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.683332757142</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="Y20" t="n">
-        <v>1933.54400078133</v>
+        <v>1320.425425970681</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5858,16 +5858,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018222</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V22" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>2653.393683503939</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>2425.404132605922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>2204.611553462392</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>532.9757468194221</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C23" t="n">
-        <v>532.9757468194221</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D23" t="n">
-        <v>532.9757468194221</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E23" t="n">
-        <v>532.9757468194221</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F23" t="n">
-        <v>532.9757468194221</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G23" t="n">
-        <v>115.0119387176089</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5989,19 +5989,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6016,25 +6016,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W23" t="n">
-        <v>1309.714918859356</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X23" t="n">
-        <v>1309.714918859356</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="Y23" t="n">
-        <v>919.5755868835438</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6068,16 +6068,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6092,7 +6092,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
         <v>2488.762748073963</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>580.2158906240411</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>433.3259431261307</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>264.3261428644631</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>106.5777702969933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
         <v>53.94298182036445</v>
@@ -6168,31 +6168,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064342</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.9054987607762</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C26" t="n">
-        <v>53.94298182036446</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D26" t="n">
-        <v>53.94298182036446</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E26" t="n">
-        <v>53.94298182036446</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036446</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2256.941971675474</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V26" t="n">
-        <v>1925.879084331904</v>
+        <v>2170.551953897502</v>
       </c>
       <c r="W26" t="n">
-        <v>1573.11042906179</v>
+        <v>2170.551953897502</v>
       </c>
       <c r="X26" t="n">
-        <v>1199.64467080071</v>
+        <v>2170.551953897502</v>
       </c>
       <c r="Y26" t="n">
-        <v>809.505338824898</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6326,22 +6326,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6350,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>325.6879402326646</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>156.7517573047577</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>507.3364050629043</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.9054987607761</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C29" t="n">
-        <v>53.94298182036445</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D29" t="n">
-        <v>53.94298182036445</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E29" t="n">
-        <v>53.94298182036445</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6481,34 +6481,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2651.754126389241</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2475.576638703411</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2256.941971675474</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U29" t="n">
-        <v>2256.941971675474</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V29" t="n">
-        <v>1925.879084331904</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W29" t="n">
-        <v>1573.11042906179</v>
+        <v>2164.575198516432</v>
       </c>
       <c r="X29" t="n">
-        <v>1199.64467080071</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="Y29" t="n">
-        <v>809.505338824898</v>
+        <v>1791.109440255352</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6563,28 +6563,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C31" t="n">
-        <v>438.9553738610024</v>
+        <v>559.1928012785274</v>
       </c>
       <c r="D31" t="n">
-        <v>438.9553738610024</v>
+        <v>409.0761618661917</v>
       </c>
       <c r="E31" t="n">
-        <v>438.9553738610024</v>
+        <v>261.1630682837986</v>
       </c>
       <c r="F31" t="n">
-        <v>438.9553738610024</v>
+        <v>114.2731207858882</v>
       </c>
       <c r="G31" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U31" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V31" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W31" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X31" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y31" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1365.68017039497</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="C32" t="n">
-        <v>1365.68017039497</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D32" t="n">
-        <v>1365.68017039497</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E32" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F32" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6727,25 +6727,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2680.223617468871</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990286</v>
+        <v>2680.223617468871</v>
       </c>
       <c r="U32" t="n">
-        <v>2478.514423990286</v>
+        <v>2680.223617468871</v>
       </c>
       <c r="V32" t="n">
-        <v>2478.514423990286</v>
+        <v>2680.223617468871</v>
       </c>
       <c r="W32" t="n">
-        <v>2125.745768720171</v>
+        <v>2327.454962198756</v>
       </c>
       <c r="X32" t="n">
-        <v>1752.280010459091</v>
+        <v>2327.454962198756</v>
       </c>
       <c r="Y32" t="n">
-        <v>1752.280010459091</v>
+        <v>1937.315630222944</v>
       </c>
     </row>
     <row r="33">
@@ -6779,16 +6779,16 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R34" t="n">
-        <v>2549.002432452407</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="S34" t="n">
-        <v>2334.714009270569</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="T34" t="n">
-        <v>2107.405821939171</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="U34" t="n">
-        <v>2022.963088632153</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="V34" t="n">
-        <v>2022.963088632153</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="C35" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D35" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E35" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F35" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036445</v>
@@ -6940,16 +6940,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6964,25 +6964,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T35" t="n">
-        <v>2500.29992809866</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U35" t="n">
-        <v>2246.538142736751</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V35" t="n">
-        <v>1915.475255393181</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W35" t="n">
-        <v>1562.706600123066</v>
+        <v>1622.111720223191</v>
       </c>
       <c r="X35" t="n">
-        <v>1189.240841861987</v>
+        <v>1248.645961962111</v>
       </c>
       <c r="Y35" t="n">
-        <v>799.1015098861748</v>
+        <v>858.5066299862995</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
         <v>53.94298182036445</v>
@@ -7101,46 +7101,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>290.5651556036578</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X37" t="n">
-        <v>62.5756047056405</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1995.909162857192</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C38" t="n">
-        <v>1626.94664591678</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>1133.649772640952</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>747.861520042708</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>336.8756152531004</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7192,34 +7192,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X38" t="n">
-        <v>2386.048494833003</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y38" t="n">
-        <v>1995.909162857192</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="39">
@@ -7229,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629042</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7341,43 +7341,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T40" t="n">
-        <v>529.4200491697815</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U40" t="n">
-        <v>529.4200491697815</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V40" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W40" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X40" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629042</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1542.779601230298</v>
+        <v>532.9757468194225</v>
       </c>
       <c r="C41" t="n">
-        <v>1173.817084289886</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D41" t="n">
-        <v>815.5513856831358</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E41" t="n">
-        <v>429.7631330848915</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F41" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7429,10 +7429,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
         <v>2642.120401548716</v>
@@ -7441,22 +7441,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U41" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V41" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W41" t="n">
-        <v>1916.245359491378</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X41" t="n">
-        <v>1542.779601230298</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y41" t="n">
-        <v>1542.779601230298</v>
+        <v>919.5755868835442</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7487,10 +7487,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K42" t="n">
         <v>309.190302261463</v>
@@ -7511,22 +7511,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7578,43 +7578,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q43" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R43" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S43" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T43" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U43" t="n">
-        <v>53.94298182036445</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036445</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1139.146815977588</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="C44" t="n">
-        <v>1139.146815977588</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="D44" t="n">
-        <v>780.8811173708375</v>
+        <v>1282.512107596176</v>
       </c>
       <c r="E44" t="n">
-        <v>780.8811173708375</v>
+        <v>896.7238549979318</v>
       </c>
       <c r="F44" t="n">
-        <v>369.8952125812299</v>
+        <v>485.7379502083242</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7666,34 +7666,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W44" t="n">
-        <v>2289.351746278601</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="X44" t="n">
-        <v>1915.885988017521</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="Y44" t="n">
-        <v>1525.74665604171</v>
+        <v>1640.777806202927</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7724,16 +7724,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M45" t="n">
         <v>1194.968834417902</v>
@@ -7748,22 +7748,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>62.81916439716883</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C46" t="n">
-        <v>62.81916439716883</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D46" t="n">
-        <v>62.81916439716883</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E46" t="n">
-        <v>62.81916439716883</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F46" t="n">
-        <v>62.81916439716883</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>62.81916439716883</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>62.81916439716883</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7815,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S46" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T46" t="n">
-        <v>579.9823256406182</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U46" t="n">
-        <v>290.8087152951862</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="V46" t="n">
-        <v>290.8087152951862</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="W46" t="n">
-        <v>290.8087152951862</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X46" t="n">
-        <v>62.81916439716883</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y46" t="n">
-        <v>62.81916439716883</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
   </sheetData>
@@ -8063,10 +8063,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>299.7352039419416</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8075,7 +8075,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8309,7 +8309,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,13 +8543,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270198</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9238900028827</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>145.0294169142004</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L30" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>256.5108343207664</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22591,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22606,7 +22606,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>82.08236302956777</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,10 +22795,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>173.9525530126115</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22865,19 +22865,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>99.74187743235971</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22922,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>87.28582189465756</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>344.2880590747468</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23111,7 +23111,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>181.3382234815047</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>173.4989653121529</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481177</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23317,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>187.569180767539</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.122657522500958e-12</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23433,13 +23433,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>56.82580834555272</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>186.6211234951019</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>260.7615551004105</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>165.3061584921355</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.115552095143357e-12</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>231.8063182229441</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>17.13900603568982</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>89.79231049790008</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>149.5493126657713</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491433</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23946,16 +23946,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>96.68503059263398</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>200.373507736111</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>286.4541584826628</v>
       </c>
     </row>
     <row r="21">
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24183,19 +24183,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>243.2051448974513</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,16 +24214,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>263.4645054360851</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>69.42772111999386</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>82.85718120047571</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>45.199959188537</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24420,16 +24420,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>160.1931355603111</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>44.31323474275146</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>112.1236628037232</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>46.83478528866308</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24657,19 +24657,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>9.537387592120368</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>149.7450736107747</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24840,28 +24840,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>122.4840039614897</v>
+        <v>107.5829646831824</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24894,7 +24894,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>379.8248581551275</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>157.6594939951127</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>120.3363719396574</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>202.6835682680299</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>21.56764906729066</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>38.34611041772803</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>59.54933966209474</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>210.0383566956715</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>133.6808629223864</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>61.74151045510195</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>158.8578157762263</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25602,13 +25602,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>28.31325977179807</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>304.8146244427351</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>358.7368687541868</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25684,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>231.8063182229441</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>100.9914615675381</v>
+        <v>138.2384675615762</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26043,7 +26043,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>126.1782010413019</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
         <v>45.199959188537</v>
@@ -26070,16 +26070,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>135.7278480073533</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465368.9729778747</v>
+        <v>465368.9729778746</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465368.9729778746</v>
+        <v>465368.9729778745</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>798427.8661131492</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>798427.8661131494</v>
+        <v>798427.8661131493</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>798427.8661131494</v>
+        <v>798427.8661131492</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>798427.8661131494</v>
+        <v>798427.8661131496</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>798427.8661131494</v>
+        <v>798427.8661131493</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131492</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
   </sheetData>
@@ -26334,13 +26334,13 @@
         <v>231322.0880126061</v>
       </c>
       <c r="I2" t="n">
+        <v>231322.0880126061</v>
+      </c>
+      <c r="J2" t="n">
+        <v>231322.0880126061</v>
+      </c>
+      <c r="K2" t="n">
         <v>231322.0880126062</v>
-      </c>
-      <c r="J2" t="n">
-        <v>231322.0880126062</v>
-      </c>
-      <c r="K2" t="n">
-        <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
         <v>231322.0880126062</v>
@@ -26349,10 +26349,10 @@
         <v>231322.0880126062</v>
       </c>
       <c r="N2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="O2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="P2" t="n">
         <v>231322.0880126062</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429958</v>
+        <v>432846.174042996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.360674058</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>16914.68964098083</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
         <v>16914.68964098084</v>
@@ -26478,10 +26478,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340945</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340945</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26493,10 +26493,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="K5" t="n">
         <v>49231.47806340947</v>
-      </c>
-      <c r="K5" t="n">
-        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340947</v>
@@ -26505,13 +26505,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13036.85191122433</v>
+        <v>-25254.8625312648</v>
       </c>
       <c r="C6" t="n">
-        <v>67732.57962032341</v>
+        <v>55514.56900028291</v>
       </c>
       <c r="D6" t="n">
-        <v>67732.57962032341</v>
+        <v>55514.56900028294</v>
       </c>
       <c r="E6" t="n">
-        <v>-268984.4916634625</v>
+        <v>-275052.9054092818</v>
       </c>
       <c r="F6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337141</v>
       </c>
       <c r="G6" t="n">
-        <v>163861.6823795333</v>
+        <v>157793.2686337141</v>
       </c>
       <c r="H6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337141</v>
       </c>
       <c r="I6" t="n">
-        <v>163861.6823795335</v>
+        <v>157793.2686337141</v>
       </c>
       <c r="J6" t="n">
-        <v>100801.7397804272</v>
+        <v>94733.32603460798</v>
       </c>
       <c r="K6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337142</v>
       </c>
       <c r="L6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337142</v>
       </c>
       <c r="M6" t="n">
-        <v>55888.32170547541</v>
+        <v>49819.90795965616</v>
       </c>
       <c r="N6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337142</v>
       </c>
       <c r="O6" t="n">
-        <v>163861.6823795333</v>
+        <v>157793.2686337143</v>
       </c>
       <c r="P6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337142</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26761,16 +26761,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
         <v>377.7436642170866</v>
@@ -26798,25 +26798,25 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="K4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545557</v>
@@ -26825,13 +26825,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768963</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768962</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768963</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,40 +31758,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,7 +31998,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
         <v>193.1674799081577</v>
@@ -32010,7 +32010,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
         <v>255.8615389119865</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
         <v>155.1528646479577</v>
@@ -32101,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,7 +32235,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
         <v>193.1674799081577</v>
@@ -32247,7 +32247,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
         <v>255.8615389119865</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
         <v>155.1528646479577</v>
@@ -32338,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M19" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34783,10 +34783,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>161.1808241620674</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34795,7 +34795,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35029,7 +35029,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35263,13 +35263,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245897</v>
@@ -35509,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.811094813734</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
-        <v>138.3897561047515</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338902</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
         <v>148.370846145888</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245897</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N19" t="n">
         <v>148.370846145888</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36211,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36685,13 +36685,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L30" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,13 +37159,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
         <v>559.3197334338902</v>
